--- a/medicine/Mort/Cimetière_nouveau_de_Puteaux/Cimetière_nouveau_de_Puteaux.xlsx
+++ b/medicine/Mort/Cimetière_nouveau_de_Puteaux/Cimetière_nouveau_de_Puteaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Puteaux</t>
+          <t>Cimetière_nouveau_de_Puteaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière nouveau de Puteaux est un cimetière communal se trouvant à sur le territoire de la ville de Nanterre dans les Hauts-de-Seine[1]. C'est l'un des deux lieux de sépulture de la ville avec le cimetière ancien de Puteaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière nouveau de Puteaux est un cimetière communal se trouvant à sur le territoire de la ville de Nanterre dans les Hauts-de-Seine. C'est l'un des deux lieux de sépulture de la ville avec le cimetière ancien de Puteaux.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Puteaux</t>
+          <t>Cimetière_nouveau_de_Puteaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son accès principal est au no 467 boulevard Aimé-Césaire.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Puteaux</t>
+          <t>Cimetière_nouveau_de_Puteaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Datant de 1913, il est agrandi en 1950, puis réaménagé en 1995 pour lui faire bénéficier de sa proximité avec les Jardins de l’Arche.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Puteaux</t>
+          <t>Cimetière_nouveau_de_Puteaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,15 +589,17 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Blat Jutka, fusillé au Mont-Valérien en 1941[2] ;
-Betty Mars (1944-1989), chanteuse et actrice[3] ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Blat Jutka, fusillé au Mont-Valérien en 1941 ;
+Betty Mars (1944-1989), chanteuse et actrice ;
 Jacques Météhen (1903-1986), compositeur.
 On y trouve de plus :
 Une stèle de granit rose pour les morts de la guerre 1914-1918, érigé en 1920,
 une autre stèle en l’honneur des défunts de la Seconde Guerre mondiale,
-un monument érigé en souvenir des victimes de l’Holocauste, datant de 1996, œuvre du sculpteur Crispin Guest[4].</t>
+un monument érigé en souvenir des victimes de l’Holocauste, datant de 1996, œuvre du sculpteur Crispin Guest.</t>
         </is>
       </c>
     </row>
